--- a/new-stats/ceske-budejovice.xlsx
+++ b/new-stats/ceske-budejovice.xlsx
@@ -2314,22 +2314,62 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Slovacko</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" t="n">
+        <v>16</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>

--- a/new-stats/ceske-budejovice.xlsx
+++ b/new-stats/ceske-budejovice.xlsx
@@ -2372,22 +2372,62 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6</v>
+      </c>
+      <c r="N34" t="n">
+        <v>9</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>

--- a/new-stats/ceske-budejovice.xlsx
+++ b/new-stats/ceske-budejovice.xlsx
@@ -2430,22 +2430,62 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M35" t="n">
+        <v>13</v>
+      </c>
+      <c r="N35" t="n">
+        <v>13</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>

--- a/new-stats/ceske-budejovice.xlsx
+++ b/new-stats/ceske-budejovice.xlsx
@@ -2488,22 +2488,62 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Dukla Prague</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M36" t="n">
+        <v>13</v>
+      </c>
+      <c r="N36" t="n">
+        <v>15</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>

--- a/new-stats/ceske-budejovice.xlsx
+++ b/new-stats/ceske-budejovice.xlsx
@@ -516,22 +516,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>

--- a/new-stats/ceske-budejovice.xlsx
+++ b/new-stats/ceske-budejovice.xlsx
@@ -570,22 +570,58 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26/07/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>

--- a/new-stats/ceske-budejovice.xlsx
+++ b/new-stats/ceske-budejovice.xlsx
@@ -624,40 +624,112 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ostrava B</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>03/08/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Slavia Prague B</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
